--- a/test_xlsx_data/test_file_2.xlsx
+++ b/test_xlsx_data/test_file_2.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView windowHeight="16620" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Countries" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Countries" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>City</t>
   </si>
@@ -80,10 +91,10 @@
     <t>Zeta</t>
   </si>
   <si>
-    <t xml:space="preserve">Total sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% Of total</t>
+    <t>Total sales</t>
+  </si>
+  <si>
+    <t>% Of total</t>
   </si>
   <si>
     <t>Belgium</t>
@@ -95,23 +106,168 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
-    <font>
-      <sz val="11.000000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
+  </numFmts>
+  <fonts count="20">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,16 +281,199 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -149,331 +488,305 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="2" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="2" applyNumberFormat="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -680,25 +993,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col bestFit="1" min="3" max="3" width="10.421875"/>
+    <col min="3" max="3" width="15.25"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -723,7 +1038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="14.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -739,27 +1054,27 @@
       <c r="E2">
         <v>20</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>0.12</v>
       </c>
-      <c r="G2" s="4" t="str">
+      <c r="G2" s="5" t="str">
         <f>IFERROR(VLOOKUP(A2,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>Belgium</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <f t="shared" ref="H2:H8" si="0">D2*E2</f>
         <v>200</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <f t="shared" ref="I2:I8" si="1">H2*F2</f>
         <v>24</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="5">
         <f t="shared" ref="J2:J8" si="2">H2+I2</f>
         <v>224</v>
       </c>
     </row>
-    <row r="3" ht="14.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -769,33 +1084,33 @@
       <c r="C3" s="2">
         <v>45577</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3">
         <v>6</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3">
         <v>17</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>0.12</v>
       </c>
-      <c r="G3" s="4" t="str">
+      <c r="G3" s="5" t="str">
         <f>IFERROR(VLOOKUP(A3,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>Belgium</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <f t="shared" si="1"/>
         <v>12.24</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="5">
         <f t="shared" si="2"/>
-        <v>114.23999999999999</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25">
+        <v>114.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -811,27 +1126,27 @@
       <c r="E4">
         <v>36</v>
       </c>
-      <c r="F4" s="3">
-        <v>5.0000000000000003e-02</v>
-      </c>
-      <c r="G4" s="4" t="str">
+      <c r="F4" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="5" t="str">
         <f>IFERROR(VLOOKUP(A4,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>Belgium</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <f t="shared" si="1"/>
-        <v>3.6000000000000001</v>
-      </c>
-      <c r="J4" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="J4" s="5">
         <f t="shared" si="2"/>
-        <v>75.599999999999994</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25">
+        <v>75.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -847,27 +1162,27 @@
       <c r="E5">
         <v>100</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>0.12</v>
       </c>
-      <c r="G5" s="4" t="str">
+      <c r="G5" s="5" t="str">
         <f>IFERROR(VLOOKUP(A5,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>Belgium</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="5">
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
     </row>
-    <row r="6" ht="14.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -880,30 +1195,30 @@
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6">
         <v>20</v>
       </c>
-      <c r="F6" s="3">
-        <v>7.0000000000000007e-02</v>
-      </c>
-      <c r="G6" s="4" t="str">
+      <c r="F6" s="4">
+        <v>0.07</v>
+      </c>
+      <c r="G6" s="5" t="str">
         <f>IFERROR(VLOOKUP(A6,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>France</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="5">
         <f t="shared" si="1"/>
-        <v>4.2000000000000002</v>
-      </c>
-      <c r="J6" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="J6" s="5">
         <f t="shared" si="2"/>
-        <v>64.200000000000003</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -913,33 +1228,33 @@
       <c r="C7" s="2">
         <v>45637</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7">
         <v>17</v>
       </c>
-      <c r="F7" s="3">
-        <v>7.0000000000000007e-02</v>
-      </c>
-      <c r="G7" s="4" t="str">
+      <c r="F7" s="4">
+        <v>0.07</v>
+      </c>
+      <c r="G7" s="5" t="str">
         <f>IFERROR(VLOOKUP(A7,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>France</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
         <f t="shared" si="1"/>
-        <v>7.1400000000000006</v>
-      </c>
-      <c r="J7" s="4">
+        <v>7.14</v>
+      </c>
+      <c r="J7" s="5">
         <f t="shared" si="2"/>
         <v>109.14</v>
       </c>
     </row>
-    <row r="8" ht="14.25">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -952,47 +1267,51 @@
       <c r="D8">
         <v>9</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8">
         <v>36</v>
       </c>
-      <c r="F8" s="3">
-        <v>8.0000000000000002e-02</v>
-      </c>
-      <c r="G8" s="4" t="str">
+      <c r="F8" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="G8" s="5" t="str">
         <f>IFERROR(VLOOKUP(A8,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>?</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="5">
         <f t="shared" si="1"/>
-        <v>25.920000000000002</v>
-      </c>
-      <c r="J8" s="4">
+        <v>25.92</v>
+      </c>
+      <c r="J8" s="5">
         <f t="shared" si="2"/>
-        <v>349.92000000000002</v>
-      </c>
+        <v>349.92</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="3"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="0" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1009,7 +1328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" ht="14.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1019,18 +1338,18 @@
       </c>
       <c r="C2">
         <f>SUMIFS(Sheet1!I:I,Sheet1!$A:$A,$A2)</f>
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="D2">
         <f>SUMIFS(Sheet1!J:J,Sheet1!$A:$A,$A2)</f>
-        <v>75.599999999999994</v>
-      </c>
-      <c r="E2" s="6">
+        <v>75.6</v>
+      </c>
+      <c r="E2" s="1">
         <f>B2/SUM(B:B)</f>
-        <v>7.4999999999999997e-02</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1040,18 +1359,18 @@
       </c>
       <c r="C3">
         <f>SUMIFS(Sheet1!I:I,Sheet1!$A:$A,$A3)</f>
-        <v>48.240000000000002</v>
+        <v>48.24</v>
       </c>
       <c r="D3">
         <f>SUMIFS(Sheet1!J:J,Sheet1!$A:$A,$A3)</f>
-        <v>450.24000000000001</v>
-      </c>
-      <c r="E3" s="7">
+        <v>450.24</v>
+      </c>
+      <c r="E3" s="1">
         <f>B3/SUM(B:B)</f>
-        <v>0.41875000000000001</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25">
+        <v>0.41875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1067,12 +1386,12 @@
         <f>SUMIFS(Sheet1!J:J,Sheet1!$A:$A,$A4)</f>
         <v>173.34</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="1">
         <f>B4/SUM(B:B)</f>
-        <v>0.16875000000000001</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25">
+        <v>0.16875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1082,36 +1401,36 @@
       </c>
       <c r="C5">
         <f>SUMIFS(Sheet1!I:I,Sheet1!$A:$A,$A5)</f>
-        <v>25.920000000000002</v>
+        <v>25.92</v>
       </c>
       <c r="D5">
         <f>SUMIFS(Sheet1!J:J,Sheet1!$A:$A,$A5)</f>
-        <v>349.92000000000002</v>
-      </c>
-      <c r="E5" s="7">
+        <v>349.92</v>
+      </c>
+      <c r="E5" s="1">
         <f>B5/SUM(B:B)</f>
-        <v>0.33750000000000002</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25"/>
+        <v>0.3375</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageMargins left="0.700787401574803" right="0.700787401574803" top="0.751968503937008" bottom="0.751968503937008" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1119,7 +1438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1127,7 +1446,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1135,7 +1454,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1144,9 +1463,8 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageMargins left="0.700787401574803" right="0.700787401574803" top="0.751968503937008" bottom="0.751968503937008" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/test_xlsx_data/test_file_2.xlsx
+++ b/test_xlsx_data/test_file_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16620" activeTab="2"/>
+    <workbookView windowHeight="16560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -717,10 +717,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -995,15 +994,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
   <cols>
-    <col min="3" max="3" width="15.25"/>
+    <col min="3" max="3" width="15.25" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1013,7 +1012,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1054,22 +1053,22 @@
       <c r="E2">
         <v>20</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>0.12</v>
       </c>
-      <c r="G2" s="5" t="str">
+      <c r="G2" s="4" t="str">
         <f>IFERROR(VLOOKUP(A2,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>Belgium</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <f t="shared" ref="H2:H8" si="0">D2*E2</f>
         <v>200</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <f t="shared" ref="I2:I8" si="1">H2*F2</f>
         <v>24</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <f t="shared" ref="J2:J8" si="2">H2+I2</f>
         <v>224</v>
       </c>
@@ -1090,22 +1089,22 @@
       <c r="E3">
         <v>17</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0.12</v>
       </c>
-      <c r="G3" s="5" t="str">
+      <c r="G3" s="4" t="str">
         <f>IFERROR(VLOOKUP(A3,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>Belgium</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <f t="shared" si="1"/>
         <v>12.24</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <f t="shared" si="2"/>
         <v>114.24</v>
       </c>
@@ -1126,22 +1125,22 @@
       <c r="E4">
         <v>36</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>0.05</v>
       </c>
-      <c r="G4" s="5" t="str">
+      <c r="G4" s="4" t="str">
         <f>IFERROR(VLOOKUP(A4,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>Belgium</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <f t="shared" si="2"/>
         <v>75.6</v>
       </c>
@@ -1162,22 +1161,22 @@
       <c r="E5">
         <v>100</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>0.12</v>
       </c>
-      <c r="G5" s="5" t="str">
+      <c r="G5" s="4" t="str">
         <f>IFERROR(VLOOKUP(A5,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>Belgium</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
@@ -1198,22 +1197,22 @@
       <c r="E6">
         <v>20</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0.07</v>
       </c>
-      <c r="G6" s="5" t="str">
+      <c r="G6" s="4" t="str">
         <f>IFERROR(VLOOKUP(A6,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>France</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <f t="shared" si="2"/>
         <v>64.2</v>
       </c>
@@ -1234,22 +1233,22 @@
       <c r="E7">
         <v>17</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>0.07</v>
       </c>
-      <c r="G7" s="5" t="str">
+      <c r="G7" s="4" t="str">
         <f>IFERROR(VLOOKUP(A7,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>France</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <f t="shared" si="1"/>
         <v>7.14</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <f t="shared" si="2"/>
         <v>109.14</v>
       </c>
@@ -1270,28 +1269,25 @@
       <c r="E8">
         <v>36</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>0.08</v>
       </c>
-      <c r="G8" s="5" t="str">
+      <c r="G8" s="4" t="str">
         <f>IFERROR(VLOOKUP(A8,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>?</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <f t="shared" si="1"/>
         <v>25.92</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <f t="shared" si="2"/>
         <v>349.92</v>
       </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1424,7 +1420,7 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/test_xlsx_data/test_file_2.xlsx
+++ b/test_xlsx_data/test_file_2.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16560"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Countries" sheetId="3" r:id="rId3"/>
+    <sheet name="Sales data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Summary" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Countries" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>City</t>
   </si>
@@ -91,10 +80,10 @@
     <t>Zeta</t>
   </si>
   <si>
-    <t>Total sales</t>
-  </si>
-  <si>
-    <t>% Of total</t>
+    <t xml:space="preserve">Total sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Of total</t>
   </si>
   <si>
     <t>Belgium</t>
@@ -106,164 +95,141 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="8">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="d\-mmm\-yyyy"/>
+    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="170" formatCode="[$-409]mmmm d, yyyy;@"/>
+    <numFmt numFmtId="171" formatCode="dd\-mmm"/>
   </numFmts>
-  <fonts count="20">
-    <font>
-      <sz val="11"/>
+  <fonts count="19">
+    <font>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.000000"/>
+      <color indexed="4"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.000000"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color indexed="2"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18.000000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.000000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.000000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.000000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="11.000000"/>
+      <color indexed="65"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -276,204 +242,206 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="9">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -488,40 +456,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -536,7 +471,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="double">
@@ -551,178 +486,181 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none"/>
+      <right style="none"/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="166" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="167" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="0" applyFill="1" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="2" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="2" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="8" fillId="0" borderId="3" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="9" fillId="3" borderId="4" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="10" fillId="4" borderId="5" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="11" fillId="5" borderId="4" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="12" fillId="6" borderId="6" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="13" fillId="0" borderId="7" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="14" fillId="0" borderId="8" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="15" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="16" fillId="8" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="17" fillId="9" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="10" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="12" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="13" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="14" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="15" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="16" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="17" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="18" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="19" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="20" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="21" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="22" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="23" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="24" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="25" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="26" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="27" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="28" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="29" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="30" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="31" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="32" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="33" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
+  <cellXfs count="8">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="168" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="11" fillId="5" borderId="4" numFmtId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="169" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="170" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="171" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,6 +713,7 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -784,8 +723,291 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -992,27 +1214,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
-    <col min="3" max="3" width="15.25" style="2"/>
+    <col customWidth="1" min="3" max="3" style="1" width="30.421875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1037,14 +1261,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>45577</v>
       </c>
       <c r="D2">
@@ -1053,34 +1277,34 @@
       <c r="E2">
         <v>20</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>0.12</v>
       </c>
-      <c r="G2" s="4" t="str">
+      <c r="G2" s="3" t="str">
         <f>IFERROR(VLOOKUP(A2,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>Belgium</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <f t="shared" ref="H2:H8" si="0">D2*E2</f>
         <v>200</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <f t="shared" ref="I2:I8" si="1">H2*F2</f>
         <v>24</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <f t="shared" ref="J2:J8" si="2">H2+I2</f>
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>45577</v>
       </c>
       <c r="D3">
@@ -1089,34 +1313,34 @@
       <c r="E3">
         <v>17</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>0.12</v>
       </c>
-      <c r="G3" s="4" t="str">
+      <c r="G3" s="3" t="str">
         <f>IFERROR(VLOOKUP(A3,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>Belgium</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <f t="shared" si="1"/>
         <v>12.24</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <f t="shared" si="2"/>
-        <v>114.24</v>
+        <v>114.23999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>45637</v>
       </c>
       <c r="D4">
@@ -1125,34 +1349,34 @@
       <c r="E4">
         <v>36</v>
       </c>
-      <c r="F4" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="G4" s="4" t="str">
+      <c r="F4" s="2">
+        <v>5.0000000000000003e-02</v>
+      </c>
+      <c r="G4" s="3" t="str">
         <f>IFERROR(VLOOKUP(A4,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>Belgium</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <f t="shared" si="1"/>
-        <v>3.6</v>
-      </c>
-      <c r="J4" s="4">
+        <v>3.6000000000000001</v>
+      </c>
+      <c r="J4" s="3">
         <f t="shared" si="2"/>
-        <v>75.6</v>
+        <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>45640</v>
       </c>
       <c r="D5">
@@ -1161,34 +1385,34 @@
       <c r="E5">
         <v>100</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>0.12</v>
       </c>
-      <c r="G5" s="4" t="str">
+      <c r="G5" s="3" t="str">
         <f>IFERROR(VLOOKUP(A5,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>Belgium</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>45577</v>
       </c>
       <c r="D6">
@@ -1197,34 +1421,34 @@
       <c r="E6">
         <v>20</v>
       </c>
-      <c r="F6" s="3">
-        <v>0.07</v>
-      </c>
-      <c r="G6" s="4" t="str">
+      <c r="F6" s="2">
+        <v>7.0000000000000007e-02</v>
+      </c>
+      <c r="G6" s="3" t="str">
         <f>IFERROR(VLOOKUP(A6,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>France</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <f t="shared" si="1"/>
-        <v>4.2</v>
-      </c>
-      <c r="J6" s="4">
+        <v>4.2000000000000002</v>
+      </c>
+      <c r="J6" s="3">
         <f t="shared" si="2"/>
-        <v>64.2</v>
+        <v>64.200000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="6">
         <v>45637</v>
       </c>
       <c r="D7">
@@ -1233,34 +1457,34 @@
       <c r="E7">
         <v>17</v>
       </c>
-      <c r="F7" s="3">
-        <v>0.07</v>
-      </c>
-      <c r="G7" s="4" t="str">
+      <c r="F7" s="2">
+        <v>7.0000000000000007e-02</v>
+      </c>
+      <c r="G7" s="3" t="str">
         <f>IFERROR(VLOOKUP(A7,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>France</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <f t="shared" si="1"/>
-        <v>7.14</v>
-      </c>
-      <c r="J7" s="4">
+        <v>7.1400000000000006</v>
+      </c>
+      <c r="J7" s="3">
         <f t="shared" si="2"/>
         <v>109.14</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="6">
         <v>45640</v>
       </c>
       <c r="D8">
@@ -1269,45 +1493,48 @@
       <c r="E8">
         <v>36</v>
       </c>
-      <c r="F8" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="G8" s="4" t="str">
+      <c r="F8" s="2">
+        <v>8.0000000000000002e-02</v>
+      </c>
+      <c r="G8" s="3" t="str">
         <f>IFERROR(VLOOKUP(A8,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>?</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <f t="shared" si="1"/>
-        <v>25.92</v>
-      </c>
-      <c r="J8" s="4">
+        <v>25.920000000000002</v>
+      </c>
+      <c r="J8" s="3">
         <f t="shared" si="2"/>
-        <v>349.92</v>
+        <v>349.92000000000002</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="600"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.800000000000001" outlineLevelRow="4" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1324,109 +1551,112 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <f>SUMIFS(Sheet1!H:H,Sheet1!$A:$A,$A2)</f>
+        <f>SUMIFS('Sales data'!H:H,'Sales data'!$A:$A,$A2)</f>
         <v>72</v>
       </c>
       <c r="C2">
-        <f>SUMIFS(Sheet1!I:I,Sheet1!$A:$A,$A2)</f>
-        <v>3.6</v>
+        <f>SUMIFS('Sales data'!I:I,'Sales data'!$A:$A,$A2)</f>
+        <v>3.6000000000000001</v>
       </c>
       <c r="D2">
-        <f>SUMIFS(Sheet1!J:J,Sheet1!$A:$A,$A2)</f>
-        <v>75.6</v>
-      </c>
-      <c r="E2" s="1">
-        <f>B2/SUM(B:B)</f>
-        <v>0.075</v>
+        <f>SUMIFS('Sales data'!J:J,'Sales data'!$A:$A,$A2)</f>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="E2" s="7">
+        <f t="shared" ref="E2:E5" si="3">B2/SUM(B:B)</f>
+        <v>7.4999999999999997e-02</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3">
-        <f>SUMIFS(Sheet1!H:H,Sheet1!$A:$A,$A3)</f>
+        <f>SUMIFS('Sales data'!H:H,'Sales data'!$A:$A,$A3)</f>
         <v>402</v>
       </c>
       <c r="C3">
-        <f>SUMIFS(Sheet1!I:I,Sheet1!$A:$A,$A3)</f>
-        <v>48.24</v>
+        <f>SUMIFS('Sales data'!I:I,'Sales data'!$A:$A,$A3)</f>
+        <v>48.240000000000002</v>
       </c>
       <c r="D3">
-        <f>SUMIFS(Sheet1!J:J,Sheet1!$A:$A,$A3)</f>
-        <v>450.24</v>
-      </c>
-      <c r="E3" s="1">
-        <f>B3/SUM(B:B)</f>
-        <v>0.41875</v>
+        <f>SUMIFS('Sales data'!J:J,'Sales data'!$A:$A,$A3)</f>
+        <v>450.24000000000001</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" si="3"/>
+        <v>0.41875000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4">
-        <f>SUMIFS(Sheet1!H:H,Sheet1!$A:$A,$A4)</f>
+        <f>SUMIFS('Sales data'!H:H,'Sales data'!$A:$A,$A4)</f>
         <v>162</v>
       </c>
       <c r="C4">
-        <f>SUMIFS(Sheet1!I:I,Sheet1!$A:$A,$A4)</f>
+        <f>SUMIFS('Sales data'!I:I,'Sales data'!$A:$A,$A4)</f>
         <v>11.34</v>
       </c>
       <c r="D4">
-        <f>SUMIFS(Sheet1!J:J,Sheet1!$A:$A,$A4)</f>
+        <f>SUMIFS('Sales data'!J:J,'Sales data'!$A:$A,$A4)</f>
         <v>173.34</v>
       </c>
-      <c r="E4" s="1">
-        <f>B4/SUM(B:B)</f>
-        <v>0.16875</v>
+      <c r="E4" s="7">
+        <f t="shared" si="3"/>
+        <v>0.16875000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5">
-        <f>SUMIFS(Sheet1!H:H,Sheet1!$A:$A,$A5)</f>
+        <f>SUMIFS('Sales data'!H:H,'Sales data'!$A:$A,$A5)</f>
         <v>324</v>
       </c>
       <c r="C5">
-        <f>SUMIFS(Sheet1!I:I,Sheet1!$A:$A,$A5)</f>
-        <v>25.92</v>
+        <f>SUMIFS('Sales data'!I:I,'Sales data'!$A:$A,$A5)</f>
+        <v>25.920000000000002</v>
       </c>
       <c r="D5">
-        <f>SUMIFS(Sheet1!J:J,Sheet1!$A:$A,$A5)</f>
-        <v>349.92</v>
-      </c>
-      <c r="E5" s="1">
-        <f>B5/SUM(B:B)</f>
-        <v>0.3375</v>
+        <f>SUMIFS('Sales data'!J:J,'Sales data'!$A:$A,$A5)</f>
+        <v>349.92000000000002</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="3"/>
+        <v>0.33750000000000002</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.700787401574803" right="0.700787401574803" top="0.751968503937008" bottom="0.751968503937008" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480313" right="0.70078740157480313" top="0.75196850393700809" bottom="0.75196850393700809" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.800000000000001" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1434,7 +1664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1442,7 +1672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1450,7 +1680,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1459,8 +1689,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.700787401574803" right="0.700787401574803" top="0.751968503937008" bottom="0.751968503937008" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480313" right="0.70078740157480313" top="0.75196850393700809" bottom="0.75196850393700809" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/test_xlsx_data/test_file_2.xlsx
+++ b/test_xlsx_data/test_file_2.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowHeight="16020"/>
   </bookViews>
   <sheets>
-    <sheet name="Sales data" sheetId="1" r:id="rId1"/>
-    <sheet name="Countries" sheetId="3" r:id="rId2"/>
-    <sheet name="Summary" sheetId="2" r:id="rId3"/>
+    <sheet name="Sales data 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sales data 2" sheetId="5" r:id="rId2"/>
+    <sheet name="Countries" sheetId="3" r:id="rId3"/>
+    <sheet name="Summary" sheetId="2" r:id="rId4"/>
+    <sheet name="Parameters" sheetId="4" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="Block2">Parameters!$B$12:$D$16</definedName>
+    <definedName name="AlphaBlock">Parameters!$B$3:$D$7</definedName>
+    <definedName name="SalesCountry" localSheetId="0">'Sales data 1'!$G$1:$G$8</definedName>
+    <definedName name="SalesCountry" localSheetId="1">'Sales data 2'!$G$1:$G$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -29,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
   <si>
     <t>City</t>
   </si>
@@ -101,6 +109,45 @@
   </si>
   <si>
     <t>% Of total</t>
+  </si>
+  <si>
+    <t>Param_Bloc1</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>cccc</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>ddddd</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>Param_Block2</t>
+  </si>
+  <si>
+    <t>Alpha2</t>
+  </si>
+  <si>
+    <t>Beta2</t>
+  </si>
+  <si>
+    <t>Gamma2</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1043,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G1" sqref="G1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
@@ -1055,9 +1102,8 @@
       <c r="F2" s="6">
         <v>0.12</v>
       </c>
-      <c r="G2" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A2,Countries!$A$1:$B$4,2,FALSE),"?")</f>
-        <v>Belgium</v>
+      <c r="G2" t="s">
+        <v>6</v>
       </c>
       <c r="H2" s="7">
         <f t="shared" ref="H2:H8" si="0">D2*E2</f>
@@ -1091,9 +1137,8 @@
       <c r="F3" s="6">
         <v>0.12</v>
       </c>
-      <c r="G3" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A3,Countries!$A$1:$B$4,2,FALSE),"?")</f>
-        <v>Belgium</v>
+      <c r="G3" t="s">
+        <v>6</v>
       </c>
       <c r="H3" s="7">
         <f t="shared" si="0"/>
@@ -1127,9 +1172,8 @@
       <c r="F4" s="6">
         <v>0.05</v>
       </c>
-      <c r="G4" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A4,Countries!$A$1:$B$4,2,FALSE),"?")</f>
-        <v>Belgium</v>
+      <c r="G4" t="s">
+        <v>6</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" si="0"/>
@@ -1163,9 +1207,8 @@
       <c r="F5" s="6">
         <v>0.12</v>
       </c>
-      <c r="G5" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A5,Countries!$A$1:$B$4,2,FALSE),"?")</f>
-        <v>Belgium</v>
+      <c r="G5" t="s">
+        <v>6</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="0"/>
@@ -1199,9 +1242,8 @@
       <c r="F6" s="6">
         <v>0.07</v>
       </c>
-      <c r="G6" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A6,Countries!$A$1:$B$4,2,FALSE),"?")</f>
-        <v>France</v>
+      <c r="G6" t="s">
+        <v>6</v>
       </c>
       <c r="H6" s="7">
         <f t="shared" si="0"/>
@@ -1235,9 +1277,8 @@
       <c r="F7" s="6">
         <v>0.07</v>
       </c>
-      <c r="G7" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A7,Countries!$A$1:$B$4,2,FALSE),"?")</f>
-        <v>France</v>
+      <c r="G7" t="s">
+        <v>6</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="0"/>
@@ -1271,9 +1312,8 @@
       <c r="F8" s="6">
         <v>0.08</v>
       </c>
-      <c r="G8" s="7" t="str">
-        <f>IFERROR(VLOOKUP(A8,Countries!$A$1:$B$4,2,FALSE),"?")</f>
-        <v>?</v>
+      <c r="G8" t="s">
+        <v>6</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" si="0"/>
@@ -1296,6 +1336,311 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
+  <cols>
+    <col min="3" max="3" width="30.421875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45577</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="G2" s="7" t="str">
+        <f>IFERROR(VLOOKUP(A2,Countries!$A$1:$B$4,2,FALSE),"?")</f>
+        <v>Belgium</v>
+      </c>
+      <c r="H2" s="7">
+        <f t="shared" ref="H2:H8" si="0">D2*E2</f>
+        <v>200</v>
+      </c>
+      <c r="I2" s="7">
+        <f t="shared" ref="I2:I8" si="1">H2*F2</f>
+        <v>24</v>
+      </c>
+      <c r="J2" s="7">
+        <f t="shared" ref="J2:J8" si="2">H2+I2</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45577</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="G3" s="7" t="str">
+        <f>IFERROR(VLOOKUP(A3,Countries!$A$1:$B$4,2,FALSE),"?")</f>
+        <v>Belgium</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="I3" s="7">
+        <f t="shared" si="1"/>
+        <v>12.24</v>
+      </c>
+      <c r="J3" s="7">
+        <f t="shared" si="2"/>
+        <v>114.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45637</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>36</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="7" t="str">
+        <f>IFERROR(VLOOKUP(A4,Countries!$A$1:$B$4,2,FALSE),"?")</f>
+        <v>Belgium</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="1"/>
+        <v>3.6</v>
+      </c>
+      <c r="J4" s="7">
+        <f t="shared" si="2"/>
+        <v>75.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45640</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="G5" s="7" t="str">
+        <f>IFERROR(VLOOKUP(A5,Countries!$A$1:$B$4,2,FALSE),"?")</f>
+        <v>Belgium</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4">
+        <v>45577</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.07</v>
+      </c>
+      <c r="G6" s="7" t="str">
+        <f>IFERROR(VLOOKUP(A6,Countries!$A$1:$B$4,2,FALSE),"?")</f>
+        <v>France</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="2"/>
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45637</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.07</v>
+      </c>
+      <c r="G7" s="7" t="str">
+        <f>IFERROR(VLOOKUP(A7,Countries!$A$1:$B$4,2,FALSE),"?")</f>
+        <v>France</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>7.14</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="2"/>
+        <v>109.14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45640</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>36</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="G8" s="7" t="str">
+        <f>IFERROR(VLOOKUP(A8,Countries!$A$1:$B$4,2,FALSE),"?")</f>
+        <v>?</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>324</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="1"/>
+        <v>25.92</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="2"/>
+        <v>349.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B4"/>
@@ -1345,13 +1690,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1378,15 +1723,15 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <f>SUMIFS('Sales data'!H:H,'Sales data'!$A:$A,$A2)</f>
+        <f>SUMIFS('Sales data 1'!H:H,'Sales data 1'!$A:$A,$A2)</f>
         <v>72</v>
       </c>
       <c r="C2">
-        <f>SUMIFS('Sales data'!I:I,'Sales data'!$A:$A,$A2)</f>
+        <f>SUMIFS('Sales data 1'!I:I,'Sales data 1'!$A:$A,$A2)</f>
         <v>3.6</v>
       </c>
       <c r="D2">
-        <f>SUMIFS('Sales data'!J:J,'Sales data'!$A:$A,$A2)</f>
+        <f>SUMIFS('Sales data 1'!J:J,'Sales data 1'!$A:$A,$A2)</f>
         <v>75.6</v>
       </c>
       <c r="E2" s="1">
@@ -1399,15 +1744,15 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <f>SUMIFS('Sales data'!H:H,'Sales data'!$A:$A,$A3)</f>
+        <f>SUMIFS('Sales data 1'!H:H,'Sales data 1'!$A:$A,$A3)</f>
         <v>402</v>
       </c>
       <c r="C3">
-        <f>SUMIFS('Sales data'!I:I,'Sales data'!$A:$A,$A3)</f>
+        <f>SUMIFS('Sales data 1'!I:I,'Sales data 1'!$A:$A,$A3)</f>
         <v>48.24</v>
       </c>
       <c r="D3">
-        <f>SUMIFS('Sales data'!J:J,'Sales data'!$A:$A,$A3)</f>
+        <f>SUMIFS('Sales data 1'!J:J,'Sales data 1'!$A:$A,$A3)</f>
         <v>450.24</v>
       </c>
       <c r="E3" s="1">
@@ -1420,15 +1765,15 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <f>SUMIFS('Sales data'!H:H,'Sales data'!$A:$A,$A4)</f>
+        <f>SUMIFS('Sales data 1'!H:H,'Sales data 1'!$A:$A,$A4)</f>
         <v>162</v>
       </c>
       <c r="C4">
-        <f>SUMIFS('Sales data'!I:I,'Sales data'!$A:$A,$A4)</f>
+        <f>SUMIFS('Sales data 1'!I:I,'Sales data 1'!$A:$A,$A4)</f>
         <v>11.34</v>
       </c>
       <c r="D4">
-        <f>SUMIFS('Sales data'!J:J,'Sales data'!$A:$A,$A4)</f>
+        <f>SUMIFS('Sales data 1'!J:J,'Sales data 1'!$A:$A,$A4)</f>
         <v>173.34</v>
       </c>
       <c r="E4" s="1">
@@ -1441,15 +1786,15 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <f>SUMIFS('Sales data'!H:H,'Sales data'!$A:$A,$A5)</f>
+        <f>SUMIFS('Sales data 1'!H:H,'Sales data 1'!$A:$A,$A5)</f>
         <v>324</v>
       </c>
       <c r="C5">
-        <f>SUMIFS('Sales data'!I:I,'Sales data'!$A:$A,$A5)</f>
+        <f>SUMIFS('Sales data 1'!I:I,'Sales data 1'!$A:$A,$A5)</f>
         <v>25.92</v>
       </c>
       <c r="D5">
-        <f>SUMIFS('Sales data'!J:J,'Sales data'!$A:$A,$A5)</f>
+        <f>SUMIFS('Sales data 1'!J:J,'Sales data 1'!$A:$A,$A5)</f>
         <v>349.92</v>
       </c>
       <c r="E5" s="1">
@@ -1462,4 +1807,144 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B4:D7">
+    <sortCondition ref="B4"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/test_xlsx_data/test_file_2.xlsx
+++ b/test_xlsx_data/test_file_2.xlsx
@@ -1,43 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16020"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sales data 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sales data 2" sheetId="5" r:id="rId2"/>
-    <sheet name="Countries" sheetId="3" r:id="rId3"/>
-    <sheet name="Summary" sheetId="2" r:id="rId4"/>
-    <sheet name="Parameters" sheetId="4" r:id="rId5"/>
+    <sheet name="Sales data 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sales data 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Countries" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Parameters" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="SalesCountry" localSheetId="0">'Sales data 1'!$G$1:$G$8</definedName>
+    <definedName name="SalesCountry" localSheetId="1">'Sales data 2'!$G$1:$G$8</definedName>
     <definedName name="Block2">Parameters!$B$12:$D$16</definedName>
     <definedName name="AlphaBlock">Parameters!$B$3:$D$7</definedName>
-    <definedName name="SalesCountry" localSheetId="0">'Sales data 1'!$G$1:$G$8</definedName>
-    <definedName name="SalesCountry" localSheetId="1">'Sales data 2'!$G$1:$G$8</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>City</t>
   </si>
@@ -81,6 +70,9 @@
     <t>Beta</t>
   </si>
   <si>
+    <t>Milan</t>
+  </si>
+  <si>
     <t>Gamma</t>
   </si>
   <si>
@@ -105,10 +97,13 @@
     <t>France</t>
   </si>
   <si>
-    <t>Total sales</t>
-  </si>
-  <si>
-    <t>% Of total</t>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Of total</t>
   </si>
   <si>
     <t>Param_Bloc1</t>
@@ -153,160 +148,141 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="8">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy"/>
-    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ d\,\ yyyy"/>
-    <numFmt numFmtId="178" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="dd\-mmm"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="d\-mmm\-yyyy"/>
+    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="170" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="171" formatCode="dd\-mmm"/>
   </numFmts>
   <fonts count="19">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.000000"/>
+      <color indexed="4"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.000000"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color indexed="2"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18.000000"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="4"/>
+      <i/>
+      <sz val="11.000000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="2"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15.000000"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13.000000"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11.000000"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="11.000000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11.000000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color indexed="65"/>
       <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -319,204 +295,206 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="9">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -531,40 +509,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -579,7 +524,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="double">
@@ -594,181 +539,181 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none"/>
+      <right style="none"/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="166" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="167" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="0" applyFill="1" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="2" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="2" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="8" fillId="0" borderId="3" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="9" fillId="3" borderId="4" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="10" fillId="4" borderId="5" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="11" fillId="5" borderId="4" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="12" fillId="6" borderId="6" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="13" fillId="0" borderId="7" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="14" fillId="0" borderId="8" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="15" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="16" fillId="8" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="17" fillId="9" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="10" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="12" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="13" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="14" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="15" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="16" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="17" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="18" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="19" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="20" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="21" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="22" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="23" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="24" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="25" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="26" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="27" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="28" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="29" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="30" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="31" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="32" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="33" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="168" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="11" fillId="5" borderId="4" numFmtId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="169" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="170" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="171" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -821,6 +766,7 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -830,8 +776,291 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -1038,27 +1267,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G8"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="G1" activeCellId="0" sqref="G1:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
-    <col min="3" max="3" width="30.421875" style="2" customWidth="1"/>
+    <col customWidth="1" min="3" max="3" style="1" width="30.421875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1083,14 +1314,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>45577</v>
       </c>
       <c r="D2">
@@ -1099,33 +1330,34 @@
       <c r="E2">
         <v>20</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="2">
         <v>0.12</v>
       </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="7">
+      <c r="G2" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A2,Countries!$A:$B,2,FALSE),"?")</f>
+        <v>Belgium</v>
+      </c>
+      <c r="H2" s="3">
         <f t="shared" ref="H2:H8" si="0">D2*E2</f>
         <v>200</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="3">
         <f t="shared" ref="I2:I8" si="1">H2*F2</f>
         <v>24</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="3">
         <f t="shared" ref="J2:J8" si="2">H2+I2</f>
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>45577</v>
       </c>
       <c r="D3">
@@ -1134,33 +1366,34 @@
       <c r="E3">
         <v>17</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="2">
         <v>0.12</v>
       </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="7">
+      <c r="G3" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A3,Countries!$A:$B,2,FALSE),"?")</f>
+        <v>Belgium</v>
+      </c>
+      <c r="H3" s="3">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="3">
         <f t="shared" si="1"/>
         <v>12.24</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="3">
         <f t="shared" si="2"/>
-        <v>114.24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>114.23999999999999</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>45637</v>
       </c>
       <c r="D4">
@@ -1169,33 +1402,34 @@
       <c r="E4">
         <v>36</v>
       </c>
-      <c r="F4" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="F4" s="2">
+        <v>5.0000000000000003e-02</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A4,Countries!$A:$B,2,FALSE),"?")</f>
+        <v>Belgium</v>
+      </c>
+      <c r="H4" s="3">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="3">
         <f t="shared" si="1"/>
-        <v>3.6</v>
-      </c>
-      <c r="J4" s="7">
+        <v>3.6000000000000001</v>
+      </c>
+      <c r="J4" s="3">
         <f t="shared" si="2"/>
-        <v>75.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4">
         <v>45640</v>
       </c>
       <c r="D5">
@@ -1204,33 +1438,34 @@
       <c r="E5">
         <v>100</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="2">
         <v>0.12</v>
       </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="G5" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A5,Countries!$A:$B,2,FALSE),"?")</f>
+        <v>Italy</v>
+      </c>
+      <c r="H5" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="3">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="3">
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5">
         <v>45577</v>
       </c>
       <c r="D6">
@@ -1239,33 +1474,34 @@
       <c r="E6">
         <v>20</v>
       </c>
-      <c r="F6" s="6">
-        <v>0.07</v>
-      </c>
-      <c r="G6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="F6" s="2">
+        <v>7.0000000000000007e-02</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A6,Countries!$A:$B,2,FALSE),"?")</f>
+        <v>France</v>
+      </c>
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="3">
         <f t="shared" si="1"/>
-        <v>4.2</v>
-      </c>
-      <c r="J6" s="7">
+        <v>4.2000000000000002</v>
+      </c>
+      <c r="J6" s="3">
         <f t="shared" si="2"/>
-        <v>64.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>64.200000000000003</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6">
         <v>45637</v>
       </c>
       <c r="D7">
@@ -1274,33 +1510,34 @@
       <c r="E7">
         <v>17</v>
       </c>
-      <c r="F7" s="6">
-        <v>0.07</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="F7" s="2">
+        <v>7.0000000000000007e-02</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A7,Countries!$A:$B,2,FALSE),"?")</f>
+        <v>France</v>
+      </c>
+      <c r="H7" s="3">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="3">
         <f t="shared" si="1"/>
-        <v>7.14</v>
-      </c>
-      <c r="J7" s="7">
+        <v>7.1399999999999997</v>
+      </c>
+      <c r="J7" s="3">
         <f t="shared" si="2"/>
         <v>109.14</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6">
         <v>45640</v>
       </c>
       <c r="D8">
@@ -1309,54 +1546,58 @@
       <c r="E8">
         <v>36</v>
       </c>
-      <c r="F8" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="G8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="F8" s="2">
+        <v>8.0000000000000002e-02</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A8,Countries!$A:$B,2,FALSE),"?")</f>
+        <v>Italy</v>
+      </c>
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="3">
         <f t="shared" si="1"/>
-        <v>25.92</v>
-      </c>
-      <c r="J8" s="7">
+        <v>25.920000000000002</v>
+      </c>
+      <c r="J8" s="3">
         <f t="shared" si="2"/>
-        <v>349.92</v>
+        <v>349.92000000000002</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G8"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="G1" activeCellId="0" sqref="G1:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.800000000000001" outlineLevelRow="7"/>
   <cols>
-    <col min="3" max="3" width="30.421875" style="2" customWidth="1"/>
+    <col customWidth="1" min="3" max="3" style="1" width="30.421875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1381,14 +1622,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>45577</v>
       </c>
       <c r="D2">
@@ -1397,34 +1638,34 @@
       <c r="E2">
         <v>20</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="2">
         <v>0.12</v>
       </c>
-      <c r="G2" s="7" t="str">
+      <c r="G2" s="3" t="str">
         <f>IFERROR(VLOOKUP(A2,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>Belgium</v>
       </c>
-      <c r="H2" s="7">
-        <f t="shared" ref="H2:H8" si="0">D2*E2</f>
+      <c r="H2" s="3">
+        <f t="shared" ref="H2:H8" si="3">D2*E2</f>
         <v>200</v>
       </c>
-      <c r="I2" s="7">
-        <f t="shared" ref="I2:I8" si="1">H2*F2</f>
+      <c r="I2" s="3">
+        <f t="shared" ref="I2:I8" si="4">H2*F2</f>
         <v>24</v>
       </c>
-      <c r="J2" s="7">
-        <f t="shared" ref="J2:J8" si="2">H2+I2</f>
+      <c r="J2" s="3">
+        <f t="shared" ref="J2:J8" si="5">H2+I2</f>
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>45577</v>
       </c>
       <c r="D3">
@@ -1433,34 +1674,34 @@
       <c r="E3">
         <v>17</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="2">
         <v>0.12</v>
       </c>
-      <c r="G3" s="7" t="str">
+      <c r="G3" s="3" t="str">
         <f>IFERROR(VLOOKUP(A3,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>Belgium</v>
       </c>
-      <c r="H3" s="7">
-        <f t="shared" si="0"/>
+      <c r="H3" s="3">
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
-      <c r="I3" s="7">
-        <f t="shared" si="1"/>
+      <c r="I3" s="3">
+        <f t="shared" si="4"/>
         <v>12.24</v>
       </c>
-      <c r="J3" s="7">
-        <f t="shared" si="2"/>
-        <v>114.24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="J3" s="3">
+        <f t="shared" si="5"/>
+        <v>114.23999999999999</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>45637</v>
       </c>
       <c r="D4">
@@ -1469,34 +1710,34 @@
       <c r="E4">
         <v>36</v>
       </c>
-      <c r="F4" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="G4" s="7" t="str">
+      <c r="F4" s="2">
+        <v>5.0000000000000003e-02</v>
+      </c>
+      <c r="G4" s="3" t="str">
         <f>IFERROR(VLOOKUP(A4,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>Belgium</v>
       </c>
-      <c r="H4" s="7">
-        <f t="shared" si="0"/>
+      <c r="H4" s="3">
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="I4" s="7">
-        <f t="shared" si="1"/>
-        <v>3.6</v>
-      </c>
-      <c r="J4" s="7">
-        <f t="shared" si="2"/>
-        <v>75.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4" s="3">
+        <f t="shared" si="4"/>
+        <v>3.6000000000000001</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="5"/>
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4">
         <v>45640</v>
       </c>
       <c r="D5">
@@ -1505,34 +1746,34 @@
       <c r="E5">
         <v>100</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="2">
         <v>0.12</v>
       </c>
-      <c r="G5" s="7" t="str">
+      <c r="G5" s="3" t="str">
         <f>IFERROR(VLOOKUP(A5,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>Belgium</v>
       </c>
-      <c r="H5" s="7">
-        <f t="shared" si="0"/>
+      <c r="H5" s="3">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="I5" s="7">
-        <f t="shared" si="1"/>
+      <c r="I5" s="3">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="J5" s="7">
-        <f t="shared" si="2"/>
+      <c r="J5" s="3">
+        <f t="shared" si="5"/>
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5">
         <v>45577</v>
       </c>
       <c r="D6">
@@ -1541,34 +1782,34 @@
       <c r="E6">
         <v>20</v>
       </c>
-      <c r="F6" s="6">
-        <v>0.07</v>
-      </c>
-      <c r="G6" s="7" t="str">
+      <c r="F6" s="2">
+        <v>7.0000000000000007e-02</v>
+      </c>
+      <c r="G6" s="3" t="str">
         <f>IFERROR(VLOOKUP(A6,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>France</v>
       </c>
-      <c r="H6" s="7">
-        <f t="shared" si="0"/>
+      <c r="H6" s="3">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="I6" s="7">
-        <f t="shared" si="1"/>
-        <v>4.2</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" si="2"/>
-        <v>64.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6" s="3">
+        <f t="shared" si="4"/>
+        <v>4.2000000000000002</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="5"/>
+        <v>64.200000000000003</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6">
         <v>45637</v>
       </c>
       <c r="D7">
@@ -1577,34 +1818,34 @@
       <c r="E7">
         <v>17</v>
       </c>
-      <c r="F7" s="6">
-        <v>0.07</v>
-      </c>
-      <c r="G7" s="7" t="str">
+      <c r="F7" s="2">
+        <v>7.0000000000000007e-02</v>
+      </c>
+      <c r="G7" s="3" t="str">
         <f>IFERROR(VLOOKUP(A7,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>France</v>
       </c>
-      <c r="H7" s="7">
-        <f t="shared" si="0"/>
+      <c r="H7" s="3">
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
-      <c r="I7" s="7">
-        <f t="shared" si="1"/>
-        <v>7.14</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" si="2"/>
+      <c r="I7" s="3">
+        <f t="shared" si="4"/>
+        <v>7.1399999999999997</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="5"/>
         <v>109.14</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6">
         <v>45640</v>
       </c>
       <c r="D8">
@@ -1613,45 +1854,48 @@
       <c r="E8">
         <v>36</v>
       </c>
-      <c r="F8" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="G8" s="7" t="str">
+      <c r="F8" s="2">
+        <v>8.0000000000000002e-02</v>
+      </c>
+      <c r="G8" s="3" t="str">
         <f>IFERROR(VLOOKUP(A8,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>?</v>
       </c>
-      <c r="H8" s="7">
-        <f t="shared" si="0"/>
+      <c r="H8" s="3">
+        <f t="shared" si="3"/>
         <v>324</v>
       </c>
-      <c r="I8" s="7">
-        <f t="shared" si="1"/>
-        <v>25.92</v>
-      </c>
-      <c r="J8" s="7">
-        <f t="shared" si="2"/>
-        <v>349.92</v>
+      <c r="I8" s="3">
+        <f t="shared" si="4"/>
+        <v>25.920000000000002</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="5"/>
+        <v>349.92000000000002</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.800000000000001" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1659,49 +1903,68 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" ht="16.800000000000001">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" ht="16.800000000000001">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.700787401574803" right="0.700787401574803" top="0.751968503937008" bottom="0.751968503937008" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480313" right="0.70078740157480313" top="0.75196850393700809" bottom="0.75196850393700809" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.800000000000001" outlineLevelRow="4" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1712,13 +1975,13 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1728,41 +1991,41 @@
       </c>
       <c r="C2">
         <f>SUMIFS('Sales data 1'!I:I,'Sales data 1'!$A:$A,$A2)</f>
-        <v>3.6</v>
+        <v>3.6000000000000001</v>
       </c>
       <c r="D2">
         <f>SUMIFS('Sales data 1'!J:J,'Sales data 1'!$A:$A,$A2)</f>
-        <v>75.6</v>
-      </c>
-      <c r="E2" s="1">
-        <f t="shared" ref="E2:E5" si="0">B2/SUM(B:B)</f>
-        <v>0.075</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="E2" s="7">
+        <f t="shared" ref="E2:E5" si="6">B2/SUM(B:B)</f>
+        <v>8.3720930232558138e-02</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3">
         <f>SUMIFS('Sales data 1'!H:H,'Sales data 1'!$A:$A,$A3)</f>
-        <v>402</v>
+        <v>302</v>
       </c>
       <c r="C3">
         <f>SUMIFS('Sales data 1'!I:I,'Sales data 1'!$A:$A,$A3)</f>
-        <v>48.24</v>
+        <v>36.240000000000002</v>
       </c>
       <c r="D3">
         <f>SUMIFS('Sales data 1'!J:J,'Sales data 1'!$A:$A,$A3)</f>
-        <v>450.24</v>
-      </c>
-      <c r="E3" s="1">
-        <f t="shared" si="0"/>
-        <v>0.41875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>338.24000000000001</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" si="6"/>
+        <v>0.35116279069767442</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <f>SUMIFS('Sales data 1'!H:H,'Sales data 1'!$A:$A,$A4)</f>
@@ -1776,14 +2039,14 @@
         <f>SUMIFS('Sales data 1'!J:J,'Sales data 1'!$A:$A,$A4)</f>
         <v>173.34</v>
       </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.16875</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="7">
+        <f t="shared" si="6"/>
+        <v>0.1883720930232558</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <f>SUMIFS('Sales data 1'!H:H,'Sales data 1'!$A:$A,$A5)</f>
@@ -1791,41 +2054,44 @@
       </c>
       <c r="C5">
         <f>SUMIFS('Sales data 1'!I:I,'Sales data 1'!$A:$A,$A5)</f>
-        <v>25.92</v>
+        <v>25.920000000000002</v>
       </c>
       <c r="D5">
         <f>SUMIFS('Sales data 1'!J:J,'Sales data 1'!$A:$A,$A5)</f>
-        <v>349.92</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.3375</v>
+        <v>349.92000000000002</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="6"/>
+        <v>0.37674418604651161</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.700787401574803" right="0.700787401574803" top="0.751968503937008" bottom="0.751968503937008" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480313" right="0.70078740157480313" top="0.75196850393700809" bottom="0.75196850393700809" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B2:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D16"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="B12" activeCellId="0" sqref="B12:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.800000000000001" outlineLevelCol="3"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2">
       <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -1833,108 +2099,108 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7">
       <c r="B7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <v>444</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11">
       <c r="B11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14">
       <c r="B14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>333</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16">
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D16">
         <v>444</v>
@@ -1944,7 +2210,9 @@
   <sortState ref="B4:D7">
     <sortCondition ref="B4"/>
   </sortState>
+  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/test_xlsx_data/test_file_2.xlsx
+++ b/test_xlsx_data/test_file_2.xlsx
@@ -1,32 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView windowHeight="16920" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Sales data 1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sales data 2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Countries" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Summary" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Parameters" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sales data 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sales data 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Countries" sheetId="3" r:id="rId3"/>
+    <sheet name="Summary" sheetId="4" r:id="rId4"/>
+    <sheet name="Parameters" sheetId="5" r:id="rId5"/>
+    <sheet name="GrandTotal" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="SalesCountry" localSheetId="0">'Sales data 1'!$G$1:$G$8</definedName>
-    <definedName name="SalesCountry" localSheetId="1">'Sales data 2'!$G$1:$G$8</definedName>
+    <definedName name="SalesCountry" localSheetId="1">'Sales data 2'!$G$1:$G$9</definedName>
     <definedName name="Block2">Parameters!$B$12:$D$16</definedName>
     <definedName name="AlphaBlock">Parameters!$B$3:$D$7</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
   <si>
     <t>City</t>
   </si>
@@ -100,10 +112,10 @@
     <t>Italy</t>
   </si>
   <si>
-    <t xml:space="preserve">Total sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% Of total</t>
+    <t>Total sales</t>
+  </si>
+  <si>
+    <t>% Of total</t>
   </si>
   <si>
     <t>Param_Bloc1</t>
@@ -143,146 +155,174 @@
   </si>
   <si>
     <t>Gamma2</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>SalesData1</t>
+  </si>
+  <si>
+    <t>SalesData2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="d\-mmm\-yyyy"/>
-    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ d\,\ yyyy"/>
-    <numFmt numFmtId="170" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="171" formatCode="dd\-mmm"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy"/>
+    <numFmt numFmtId="177" formatCode="dd\-mmm"/>
+    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="179" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="19">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color indexed="4"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color indexed="20"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color indexed="2"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18.000000"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15.000000"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13.000000"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
+      <color indexed="65"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.000000"/>
-      <color indexed="65"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.000000"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.000000"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -295,173 +335,219 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241899"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241899"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241899"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241899"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241899"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241899"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="9">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -476,40 +562,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -524,7 +595,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -539,181 +610,182 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="166" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="167" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="0" applyFill="1" applyBorder="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="6" fillId="0" borderId="2" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="2" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="8" fillId="0" borderId="3" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="9" fillId="3" borderId="4" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="10" fillId="4" borderId="5" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="11" fillId="5" borderId="4" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="12" fillId="6" borderId="6" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="13" fillId="0" borderId="7" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="14" fillId="0" borderId="8" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="15" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="16" fillId="8" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="17" fillId="9" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="18" fillId="10" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="11" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="12" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="18" fillId="13" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="18" fillId="14" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="15" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="16" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="18" fillId="17" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="18" fillId="18" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="19" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="20" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="18" fillId="21" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="18" fillId="22" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="23" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="24" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="18" fillId="25" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="18" fillId="26" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="27" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="28" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="18" fillId="29" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="18" fillId="30" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="31" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="32" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="18" fillId="33" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="168" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="11" fillId="5" borderId="4" numFmtId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="169" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="170" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="171" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="3" applyNumberFormat="1"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,7 +794,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -766,7 +838,6 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -776,291 +847,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -1267,29 +1055,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="G1" activeCellId="0" sqref="G1:G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
   <cols>
-    <col customWidth="1" min="3" max="3" style="1" width="30.421875"/>
+    <col min="3" max="3" width="30.421875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.5"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1314,14 +1101,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>45577</v>
       </c>
       <c r="D2">
@@ -1330,34 +1117,34 @@
       <c r="E2">
         <v>20</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="7">
         <v>0.12</v>
       </c>
-      <c r="G2" s="3" t="str">
+      <c r="G2" s="8" t="str">
         <f>IFERROR(VLOOKUP(A2,Countries!$A:$B,2,FALSE),"?")</f>
         <v>Belgium</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="8">
         <f t="shared" ref="H2:H8" si="0">D2*E2</f>
         <v>200</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="8">
         <f t="shared" ref="I2:I8" si="1">H2*F2</f>
         <v>24</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="8">
         <f t="shared" ref="J2:J8" si="2">H2+I2</f>
         <v>224</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>45577</v>
       </c>
       <c r="D3">
@@ -1366,70 +1153,70 @@
       <c r="E3">
         <v>17</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="7">
         <v>0.12</v>
       </c>
-      <c r="G3" s="3" t="str">
+      <c r="G3" s="8" t="str">
         <f>IFERROR(VLOOKUP(A3,Countries!$A:$B,2,FALSE),"?")</f>
         <v>Belgium</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="8">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="8">
         <f t="shared" si="1"/>
         <v>12.24</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="8">
         <f t="shared" si="2"/>
-        <v>114.23999999999999</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>114.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>45637</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>36</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5.0000000000000003e-02</v>
-      </c>
-      <c r="G4" s="3" t="str">
+        <v>35</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="8" t="str">
         <f>IFERROR(VLOOKUP(A4,Countries!$A:$B,2,FALSE),"?")</f>
         <v>Belgium</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="8">
         <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="I4" s="3">
+        <v>210</v>
+      </c>
+      <c r="I4" s="8">
         <f t="shared" si="1"/>
-        <v>3.6000000000000001</v>
-      </c>
-      <c r="J4" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="J4" s="8">
         <f t="shared" si="2"/>
-        <v>75.599999999999994</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>220.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>45640</v>
       </c>
       <c r="D5">
@@ -1438,34 +1225,34 @@
       <c r="E5">
         <v>100</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="7">
         <v>0.12</v>
       </c>
-      <c r="G5" s="3" t="str">
+      <c r="G5" s="8" t="str">
         <f>IFERROR(VLOOKUP(A5,Countries!$A:$B,2,FALSE),"?")</f>
         <v>Italy</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="8">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="8">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="8">
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>45577</v>
       </c>
       <c r="D6">
@@ -1474,70 +1261,70 @@
       <c r="E6">
         <v>20</v>
       </c>
-      <c r="F6" s="2">
-        <v>7.0000000000000007e-02</v>
-      </c>
-      <c r="G6" s="3" t="str">
+      <c r="F6" s="7">
+        <v>0.07</v>
+      </c>
+      <c r="G6" s="8" t="str">
         <f>IFERROR(VLOOKUP(A6,Countries!$A:$B,2,FALSE),"?")</f>
         <v>France</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="8">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="8">
         <f t="shared" si="1"/>
-        <v>4.2000000000000002</v>
-      </c>
-      <c r="J6" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="J6" s="8">
         <f t="shared" si="2"/>
-        <v>64.200000000000003</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>45637</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>17</v>
-      </c>
-      <c r="F7" s="2">
-        <v>7.0000000000000007e-02</v>
-      </c>
-      <c r="G7" s="3" t="str">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.07</v>
+      </c>
+      <c r="G7" s="8" t="str">
         <f>IFERROR(VLOOKUP(A7,Countries!$A:$B,2,FALSE),"?")</f>
         <v>France</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="8">
         <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-      <c r="I7" s="3">
+        <v>76</v>
+      </c>
+      <c r="I7" s="8">
         <f t="shared" si="1"/>
-        <v>7.1399999999999997</v>
-      </c>
-      <c r="J7" s="3">
+        <v>5.32</v>
+      </c>
+      <c r="J7" s="8">
         <f t="shared" si="2"/>
-        <v>109.14</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>81.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>45640</v>
       </c>
       <c r="D8">
@@ -1546,58 +1333,55 @@
       <c r="E8">
         <v>36</v>
       </c>
-      <c r="F8" s="2">
-        <v>8.0000000000000002e-02</v>
-      </c>
-      <c r="G8" s="3" t="str">
+      <c r="F8" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="G8" s="8" t="str">
         <f>IFERROR(VLOOKUP(A8,Countries!$A:$B,2,FALSE),"?")</f>
         <v>Italy</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="8">
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="8">
         <f t="shared" si="1"/>
-        <v>25.920000000000002</v>
-      </c>
-      <c r="J8" s="3">
+        <v>25.92</v>
+      </c>
+      <c r="J8" s="8">
         <f t="shared" si="2"/>
-        <v>349.92000000000002</v>
+        <v>349.92</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="G1" activeCellId="0" sqref="G1:G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.800000000000001" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col customWidth="1" min="3" max="3" style="1" width="30.421875"/>
+    <col min="3" max="3" width="30.421875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1622,14 +1406,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>45577</v>
       </c>
       <c r="D2">
@@ -1638,34 +1422,34 @@
       <c r="E2">
         <v>20</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="7">
         <v>0.12</v>
       </c>
-      <c r="G2" s="3" t="str">
+      <c r="G2" s="8" t="str">
         <f>IFERROR(VLOOKUP(A2,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>Belgium</v>
       </c>
-      <c r="H2" s="3">
-        <f t="shared" ref="H2:H8" si="3">D2*E2</f>
+      <c r="H2" s="8">
+        <f>D2*E2</f>
         <v>200</v>
       </c>
-      <c r="I2" s="3">
-        <f t="shared" ref="I2:I8" si="4">H2*F2</f>
+      <c r="I2" s="8">
+        <f>H2*F2</f>
         <v>24</v>
       </c>
-      <c r="J2" s="3">
-        <f t="shared" ref="J2:J8" si="5">H2+I2</f>
+      <c r="J2" s="8">
+        <f>H2+I2</f>
         <v>224</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>45577</v>
       </c>
       <c r="D3">
@@ -1674,34 +1458,34 @@
       <c r="E3">
         <v>17</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="7">
         <v>0.12</v>
       </c>
-      <c r="G3" s="3" t="str">
+      <c r="G3" s="8" t="str">
         <f>IFERROR(VLOOKUP(A3,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>Belgium</v>
       </c>
-      <c r="H3" s="3">
-        <f t="shared" si="3"/>
+      <c r="H3" s="8">
+        <f>D3*E3</f>
         <v>102</v>
       </c>
-      <c r="I3" s="3">
-        <f t="shared" si="4"/>
+      <c r="I3" s="8">
+        <f>H3*F3</f>
         <v>12.24</v>
       </c>
-      <c r="J3" s="3">
-        <f t="shared" si="5"/>
-        <v>114.23999999999999</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="J3" s="8">
+        <f>H3+I3</f>
+        <v>114.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>45637</v>
       </c>
       <c r="D4">
@@ -1710,32 +1494,32 @@
       <c r="E4">
         <v>36</v>
       </c>
-      <c r="F4" s="2">
-        <v>5.0000000000000003e-02</v>
-      </c>
-      <c r="G4" s="3" t="str">
+      <c r="F4" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="8" t="str">
         <f>IFERROR(VLOOKUP(A4,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>Belgium</v>
       </c>
-      <c r="H4" s="3">
-        <f t="shared" si="3"/>
+      <c r="H4" s="8">
+        <f>D4*E4</f>
         <v>72</v>
       </c>
-      <c r="I4" s="3">
-        <f t="shared" si="4"/>
-        <v>3.6000000000000001</v>
-      </c>
-      <c r="J4" s="3">
-        <f t="shared" si="5"/>
-        <v>75.599999999999994</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="I4" s="8">
+        <f>H4*F4</f>
+        <v>3.6</v>
+      </c>
+      <c r="J4" s="8">
+        <f>H4+I4</f>
+        <v>75.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4">
         <v>45640</v>
@@ -1744,158 +1528,191 @@
         <v>1</v>
       </c>
       <c r="E5">
+        <v>41</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="G5" s="8" t="str">
+        <f>IFERROR(VLOOKUP(A5,Countries!$A$1:$B$4,2,FALSE),"?")</f>
+        <v>?</v>
+      </c>
+      <c r="H5" s="8">
+        <f>D5*E5</f>
+        <v>41</v>
+      </c>
+      <c r="I5" s="8">
+        <f>H5*F5</f>
+        <v>3.28</v>
+      </c>
+      <c r="J5" s="8">
+        <f>H5+I5</f>
+        <v>44.28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45640</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>100</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F6" s="7">
         <v>0.12</v>
       </c>
-      <c r="G5" s="3" t="str">
-        <f>IFERROR(VLOOKUP(A5,Countries!$A$1:$B$4,2,FALSE),"?")</f>
+      <c r="G6" s="8" t="str">
+        <f>IFERROR(VLOOKUP(A6,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>Belgium</v>
       </c>
-      <c r="H5" s="3">
-        <f t="shared" si="3"/>
+      <c r="H6" s="8">
+        <f>D6*E6</f>
         <v>100</v>
       </c>
-      <c r="I5" s="3">
-        <f t="shared" si="4"/>
+      <c r="I6" s="8">
+        <f>H6*F6</f>
         <v>12</v>
       </c>
-      <c r="J5" s="3">
-        <f t="shared" si="5"/>
+      <c r="J6" s="8">
+        <f>H6+I6</f>
         <v>112</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5">
-        <v>45577</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2">
-        <v>7.0000000000000007e-02</v>
-      </c>
-      <c r="G6" s="3" t="str">
-        <f>IFERROR(VLOOKUP(A6,Countries!$A$1:$B$4,2,FALSE),"?")</f>
-        <v>France</v>
-      </c>
-      <c r="H6" s="3">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="I6" s="3">
-        <f t="shared" si="4"/>
-        <v>4.2000000000000002</v>
-      </c>
-      <c r="J6" s="3">
-        <f t="shared" si="5"/>
-        <v>64.200000000000003</v>
-      </c>
-    </row>
-    <row r="7">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="6">
-        <v>45637</v>
+        <v>45577</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>17</v>
-      </c>
-      <c r="F7" s="2">
-        <v>7.0000000000000007e-02</v>
-      </c>
-      <c r="G7" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.07</v>
+      </c>
+      <c r="G7" s="8" t="str">
         <f>IFERROR(VLOOKUP(A7,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>France</v>
       </c>
-      <c r="H7" s="3">
-        <f t="shared" si="3"/>
+      <c r="H7" s="8">
+        <f>D7*E7</f>
+        <v>60</v>
+      </c>
+      <c r="I7" s="8">
+        <f>H7*F7</f>
+        <v>4.2</v>
+      </c>
+      <c r="J7" s="8">
+        <f>H7+I7</f>
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45637</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.07</v>
+      </c>
+      <c r="G8" s="8" t="str">
+        <f>IFERROR(VLOOKUP(A8,Countries!$A$1:$B$4,2,FALSE),"?")</f>
+        <v>France</v>
+      </c>
+      <c r="H8" s="8">
+        <f>D8*E8</f>
         <v>102</v>
       </c>
-      <c r="I7" s="3">
-        <f t="shared" si="4"/>
-        <v>7.1399999999999997</v>
-      </c>
-      <c r="J7" s="3">
-        <f t="shared" si="5"/>
+      <c r="I8" s="8">
+        <f>H8*F8</f>
+        <v>7.14</v>
+      </c>
+      <c r="J8" s="8">
+        <f>H8+I8</f>
         <v>109.14</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C9" s="4">
         <v>45640</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>9</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>36</v>
       </c>
-      <c r="F8" s="2">
-        <v>8.0000000000000002e-02</v>
-      </c>
-      <c r="G8" s="3" t="str">
-        <f>IFERROR(VLOOKUP(A8,Countries!$A$1:$B$4,2,FALSE),"?")</f>
+      <c r="F9" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="G9" s="8" t="str">
+        <f>IFERROR(VLOOKUP(A9,Countries!$A$1:$B$4,2,FALSE),"?")</f>
         <v>?</v>
       </c>
-      <c r="H8" s="3">
-        <f t="shared" si="3"/>
+      <c r="H9" s="8">
+        <f>D9*E9</f>
         <v>324</v>
       </c>
-      <c r="I8" s="3">
-        <f t="shared" si="4"/>
-        <v>25.920000000000002</v>
-      </c>
-      <c r="J8" s="3">
-        <f t="shared" si="5"/>
-        <v>349.92000000000002</v>
+      <c r="I9" s="8">
+        <f>H9*F9</f>
+        <v>25.92</v>
+      </c>
+      <c r="J9" s="8">
+        <f>H9+I9</f>
+        <v>349.92</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.800000000000001" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1903,7 +1720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1911,7 +1728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1919,7 +1736,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1927,7 +1744,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" ht="16.800000000000001">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1935,7 +1752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" ht="16.800000000000001">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1944,27 +1761,24 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480313" right="0.70078740157480313" top="0.75196850393700809" bottom="0.75196850393700809" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageMargins left="0.700787401574803" right="0.700787401574803" top="0.751968503937008" bottom="0.751968503937008" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.800000000000001" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1981,28 +1795,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
         <f>SUMIFS('Sales data 1'!H:H,'Sales data 1'!$A:$A,$A2)</f>
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="C2">
         <f>SUMIFS('Sales data 1'!I:I,'Sales data 1'!$A:$A,$A2)</f>
-        <v>3.6000000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="D2">
         <f>SUMIFS('Sales data 1'!J:J,'Sales data 1'!$A:$A,$A2)</f>
-        <v>75.599999999999994</v>
-      </c>
-      <c r="E2" s="7">
-        <f t="shared" ref="E2:E5" si="6">B2/SUM(B:B)</f>
-        <v>8.3720930232558138e-02</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>220.5</v>
+      </c>
+      <c r="E2" s="2">
+        <f t="shared" ref="E2:E5" si="0">B2/SUM(B:B)</f>
+        <v>0.216049382716049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2012,39 +1826,39 @@
       </c>
       <c r="C3">
         <f>SUMIFS('Sales data 1'!I:I,'Sales data 1'!$A:$A,$A3)</f>
-        <v>36.240000000000002</v>
+        <v>36.24</v>
       </c>
       <c r="D3">
         <f>SUMIFS('Sales data 1'!J:J,'Sales data 1'!$A:$A,$A3)</f>
-        <v>338.24000000000001</v>
-      </c>
-      <c r="E3" s="7">
-        <f t="shared" si="6"/>
-        <v>0.35116279069767442</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>338.24</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.310699588477366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4">
         <f>SUMIFS('Sales data 1'!H:H,'Sales data 1'!$A:$A,$A4)</f>
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="C4">
         <f>SUMIFS('Sales data 1'!I:I,'Sales data 1'!$A:$A,$A4)</f>
-        <v>11.34</v>
+        <v>9.52</v>
       </c>
       <c r="D4">
         <f>SUMIFS('Sales data 1'!J:J,'Sales data 1'!$A:$A,$A4)</f>
-        <v>173.34</v>
-      </c>
-      <c r="E4" s="7">
-        <f t="shared" si="6"/>
-        <v>0.1883720930232558</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>145.52</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.139917695473251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2054,44 +1868,41 @@
       </c>
       <c r="C5">
         <f>SUMIFS('Sales data 1'!I:I,'Sales data 1'!$A:$A,$A5)</f>
-        <v>25.920000000000002</v>
+        <v>25.92</v>
       </c>
       <c r="D5">
         <f>SUMIFS('Sales data 1'!J:J,'Sales data 1'!$A:$A,$A5)</f>
-        <v>349.92000000000002</v>
-      </c>
-      <c r="E5" s="7">
-        <f t="shared" si="6"/>
-        <v>0.37674418604651161</v>
+        <v>349.92</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.333333333333333</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480313" right="0.70078740157480313" top="0.75196850393700809" bottom="0.75196850393700809" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageMargins left="0.700787401574803" right="0.700787401574803" top="0.751968503937008" bottom="0.751968503937008" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:D16"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="B12" activeCellId="0" sqref="B12:D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.800000000000001" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -2102,7 +1913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -2113,7 +1924,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
         <v>29</v>
       </c>
@@ -2124,7 +1935,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
         <v>31</v>
       </c>
@@ -2135,7 +1946,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
         <v>33</v>
       </c>
@@ -2146,12 +1957,12 @@
         <v>444</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:2">
       <c r="B11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:4">
       <c r="B12" t="s">
         <v>36</v>
       </c>
@@ -2162,7 +1973,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="2:4">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -2173,7 +1984,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="2:4">
       <c r="B14" t="s">
         <v>29</v>
       </c>
@@ -2184,7 +1995,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="2:4">
       <c r="B15" t="s">
         <v>31</v>
       </c>
@@ -2195,7 +2006,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="2:4">
       <c r="B16" t="s">
         <v>33</v>
       </c>
@@ -2210,9 +2021,84 @@
   <sortState ref="B4:D7">
     <sortCondition ref="B4"/>
   </sortState>
-  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1">
+        <f>COUNTA('Sales data 1'!B:B)</f>
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <f>SUM('Sales data 1'!H:H)</f>
+        <v>1072</v>
+      </c>
+      <c r="D2" s="1">
+        <f>SUM('Sales data 1'!I:I)</f>
+        <v>94.18</v>
+      </c>
+      <c r="E2" s="1">
+        <f>SUM('Sales data 1'!J:J)</f>
+        <v>1166.18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <f>COUNTA('Sales data 2'!B:B)</f>
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <f>SUM('Sales data 2'!H:H)</f>
+        <v>1001</v>
+      </c>
+      <c r="D3" s="1">
+        <f>SUM('Sales data 2'!I:I)</f>
+        <v>92.38</v>
+      </c>
+      <c r="E3" s="1">
+        <f>SUM('Sales data 2'!J:J)</f>
+        <v>1093.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>